--- a/Excels/Fleet Paqueteria.xlsx
+++ b/Excels/Fleet Paqueteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA3AC70-7259-4A2A-B95C-36BCBF693242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A2B04E-47E7-463E-BB0C-E29DEF5434AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACF8A49-EE6E-47DE-9CD9-2B198662CB92}"/>
   </bookViews>
@@ -4212,9 +4212,6 @@
     <t>SELECT ID, IdRuta, IdEnvio, Tag, Secuencia, Estado, Fecha, Hora, IdMotivo, Leyenda, Latitud, Longitud, IconoPropio, IDmapa, Distancia, Tiempo, NotaChofer, NuevoOrden, IDCabCertificacion, IdLiquidacionFletero, Turno</t>
   </si>
   <si>
-    <t>WHERE  (IdRuta = 8856)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT ID, NroSecuencia, ESTADO, LATITUD2, LONGITUD2, FechaEntregaCliente, IDPROVEEDOR, AGENCIANR, ENVIA, RUTA, ORDENID, FECHA, HORA, IMEI, TRANSPORTE, CONTRATO, TITULAR, DNI, DOMICILIO, CP, LATITUD, LONGITUD, </t>
   </si>
   <si>
@@ -4230,10 +4227,13 @@
     <t xml:space="preserve">                  UltimaNotaFletero, IdComprobanteDevolucion, Turno, BarrioEntrega, PartidoEntrega, AvonDayRoute, AvonTravelRoute, AvonSecuenceRoute, AvonInformarInclusion, NaturaStopSincro</t>
   </si>
   <si>
-    <t>WHERE  (NroRuta = 8856)</t>
-  </si>
-  <si>
     <t>ORDER BY NroSecuencia</t>
+  </si>
+  <si>
+    <t>WHERE  (IdRuta = 10090)</t>
+  </si>
+  <si>
+    <t>WHERE  (NroRuta = 10090)</t>
   </si>
 </sst>
 </file>
@@ -4939,9 +4939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF27910-34FE-4143-AA68-B191552F013D}">
   <dimension ref="A1:BX101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13726,7 +13724,7 @@
   <dimension ref="A1:Q164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A48"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -15174,7 +15172,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="G38" s="4">
         <v>217</v>
@@ -15285,7 +15283,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G41" s="4">
         <v>223</v>
@@ -15321,7 +15319,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G42" s="4">
         <v>225</v>
@@ -15359,7 +15357,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G43" s="4">
         <v>229</v>
@@ -15397,7 +15395,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G44" s="4">
         <v>231</v>
@@ -15435,7 +15433,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G45" s="4">
         <v>232</v>
@@ -15509,7 +15507,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G47" s="4">
         <v>234</v>
@@ -15547,7 +15545,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="G48" s="4">
         <v>235</v>

--- a/Excels/Fleet Paqueteria.xlsx
+++ b/Excels/Fleet Paqueteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A2B04E-47E7-463E-BB0C-E29DEF5434AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47EB710-187A-46C2-BF10-06C34C6D1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACF8A49-EE6E-47DE-9CD9-2B198662CB92}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1401">
   <si>
     <t>Server=www.fleetsa.com.ar;Database=ObrasOT;User Id=gaos;password=gaosfleetb4a$</t>
   </si>
@@ -4234,6 +4234,15 @@
   </si>
   <si>
     <t>WHERE  (NroRuta = 10090)</t>
+  </si>
+  <si>
+    <t>Fletero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruta </t>
+  </si>
+  <si>
+    <t>*TEVEZ</t>
   </si>
 </sst>
 </file>
@@ -13724,7 +13733,7 @@
   <dimension ref="A1:Q164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -14696,6 +14705,12 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D25" s="2">
+        <v>123456</v>
+      </c>
       <c r="G25" s="4">
         <v>152</v>
       </c>
@@ -14735,6 +14750,12 @@
         <v>601</v>
       </c>
       <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D26" s="2">
+        <v>752</v>
+      </c>
       <c r="G26" s="4">
         <v>153</v>
       </c>
@@ -14774,6 +14795,12 @@
         <v>1384</v>
       </c>
       <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23595</v>
+      </c>
       <c r="G27" s="4">
         <v>158</v>
       </c>

--- a/Excels/Fleet Paqueteria.xlsx
+++ b/Excels/Fleet Paqueteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47EB710-187A-46C2-BF10-06C34C6D1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ACC176-5637-41B3-BBEA-EA90AADE5512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACF8A49-EE6E-47DE-9CD9-2B198662CB92}"/>
   </bookViews>
@@ -3372,9 +3372,6 @@
     <t>S/C 4279, PILAR, BUENOS AIRES, ARGENTINA</t>
   </si>
   <si>
-    <t xml:space="preserve"> where Estado=0 and idfletero=446</t>
-  </si>
-  <si>
     <t xml:space="preserve">  select * from p_Seguimiento</t>
   </si>
   <si>
@@ -4243,6 +4240,9 @@
   </si>
   <si>
     <t>*TEVEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> where Estado=0 and idfletero=471</t>
   </si>
 </sst>
 </file>
@@ -5031,7 +5031,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G3" s="11">
         <v>-345287848</v>
@@ -5125,7 +5125,7 @@
         <v>-587677978</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K3" s="2">
         <v>2464</v>
@@ -5175,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G4" s="11">
         <v>-345447303</v>
@@ -5184,7 +5184,7 @@
         <v>-587616742</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K4" s="2">
         <v>1443</v>
@@ -5234,7 +5234,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G5" s="11">
         <v>-345108987</v>
@@ -5243,7 +5243,7 @@
         <v>-588115753</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K5" s="2">
         <v>3334</v>
@@ -5293,7 +5293,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G6" s="11">
         <v>-345439542</v>
@@ -5302,7 +5302,7 @@
         <v>-587588683</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K6" s="2">
         <v>345</v>
@@ -5352,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G7" s="11">
         <v>-344674957</v>
@@ -5361,7 +5361,7 @@
         <v>-587214744</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K7" s="2">
         <v>1742</v>
@@ -5411,7 +5411,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G8" s="11">
         <v>-345376125</v>
@@ -5420,7 +5420,7 @@
         <v>-587684367</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K8" s="2">
         <v>2452</v>
@@ -5470,7 +5470,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G9" s="11">
         <v>-345382794</v>
@@ -5479,7 +5479,7 @@
         <v>-587784271</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K9" s="2">
         <v>1156</v>
@@ -5529,7 +5529,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G10" s="11">
         <v>-344995726</v>
@@ -5538,7 +5538,7 @@
         <v>-587194224</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K10" s="2">
         <v>3216</v>
@@ -5588,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G11" s="11">
         <v>-344945856</v>
@@ -5597,7 +5597,7 @@
         <v>-587236774</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="K11" s="2">
         <v>914</v>
@@ -5647,7 +5647,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G12" s="11">
         <v>-344975134</v>
@@ -5656,7 +5656,7 @@
         <v>-588034897</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K12" s="2">
         <v>3938</v>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G13" s="11">
         <v>-345306090</v>
@@ -5715,7 +5715,7 @@
         <v>-587632754</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="K13" s="2">
         <v>1343</v>
@@ -5765,7 +5765,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G14" s="11">
         <v>-344760783</v>
@@ -5774,7 +5774,7 @@
         <v>-587352971</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="K14" s="2">
         <v>3280</v>
@@ -5824,7 +5824,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G15" s="11">
         <v>-345192488</v>
@@ -5833,7 +5833,7 @@
         <v>-587228082</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="K15" s="2">
         <v>3938</v>
@@ -5883,7 +5883,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G16" s="11">
         <v>-345082388</v>
@@ -5892,7 +5892,7 @@
         <v>-587890180</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K16" s="2">
         <v>880</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G17" s="11">
         <v>-345210608</v>
@@ -5951,7 +5951,7 @@
         <v>-588067114</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="K17" s="2">
         <v>2930</v>
@@ -6001,7 +6001,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G18" s="11">
         <v>-345418555</v>
@@ -6010,7 +6010,7 @@
         <v>-587878331</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K18" s="2">
         <v>5047</v>
@@ -6060,7 +6060,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G19" s="11">
         <v>-345257592</v>
@@ -6069,7 +6069,7 @@
         <v>-587414509</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K19" s="2">
         <v>2222</v>
@@ -6119,16 +6119,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>1323</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>1324</v>
       </c>
       <c r="K20" s="2">
         <v>4620</v>
@@ -6178,7 +6178,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G21" s="11">
         <v>-345391599</v>
@@ -6187,7 +6187,7 @@
         <v>-587562401</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K21" s="2">
         <v>833</v>
@@ -6237,7 +6237,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G22" s="11">
         <v>-344692630</v>
@@ -6246,7 +6246,7 @@
         <v>-587357355</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K22" s="2">
         <v>1216</v>
@@ -6296,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G23" s="11">
         <v>-344685610</v>
@@ -6305,7 +6305,7 @@
         <v>-587620727</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="K23" s="2">
         <v>5364</v>
@@ -6355,7 +6355,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G24" s="11">
         <v>-345005660</v>
@@ -6364,7 +6364,7 @@
         <v>-587988324</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K24" s="2">
         <v>588</v>
@@ -6414,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G25" s="11">
         <v>-346077811</v>
@@ -6423,7 +6423,7 @@
         <v>-587793879</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="K25" s="2">
         <v>1866</v>
@@ -6473,7 +6473,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G26" s="11">
         <v>-346026054</v>
@@ -6482,7 +6482,7 @@
         <v>-587987894</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="K26" s="2">
         <v>8708</v>
@@ -6532,7 +6532,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G27" s="11">
         <v>-344971513</v>
@@ -6541,7 +6541,7 @@
         <v>-588031755</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K27" s="2">
         <v>3520</v>
@@ -6591,7 +6591,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G28" s="11">
         <v>-345249159</v>
@@ -6600,7 +6600,7 @@
         <v>-588108441</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K28" s="2">
         <v>3166</v>
@@ -6650,7 +6650,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G29" s="11">
         <v>-345090442</v>
@@ -6659,7 +6659,7 @@
         <v>-587674604</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="K29" s="2">
         <v>2992</v>
@@ -6709,7 +6709,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G30" s="11">
         <v>-346210840</v>
@@ -6718,7 +6718,7 @@
         <v>-588040839</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="K30" s="2">
         <v>2701</v>
@@ -6768,7 +6768,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G31" s="11">
         <v>-345170228</v>
@@ -6777,7 +6777,7 @@
         <v>-587855437</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K31" s="2">
         <v>3582</v>
@@ -6827,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G32" s="11">
         <v>-345220599</v>
@@ -6836,7 +6836,7 @@
         <v>-587881878</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K32" s="2">
         <v>4418</v>
@@ -6886,7 +6886,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G33" s="11">
         <v>-344962519</v>
@@ -6895,7 +6895,7 @@
         <v>-587647798</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K33" s="2">
         <v>1443</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="35" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="36" spans="1:76" x14ac:dyDescent="0.2">
@@ -7154,13 +7154,13 @@
         <v>795</v>
       </c>
       <c r="BV36" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BW36" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="BW36" s="3" t="s">
+      <c r="BX36" s="3" t="s">
         <v>1158</v>
-      </c>
-      <c r="BX36" s="3" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="37" spans="1:76" x14ac:dyDescent="0.2">
@@ -7195,13 +7195,13 @@
         <v>32</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N37" s="2">
         <v>20000004</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="P37" s="2">
         <v>1665</v>
@@ -7228,7 +7228,7 @@
         <v>446</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y37" s="2" t="s">
         <v>32</v>
@@ -7237,13 +7237,13 @@
         <v>44574</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>815</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA37" s="12">
         <v>44729</v>
@@ -7377,13 +7377,13 @@
         <v>32</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N38" s="2">
         <v>20000008</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P38" s="2">
         <v>1665</v>
@@ -7410,7 +7410,7 @@
         <v>446</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>32</v>
@@ -7419,13 +7419,13 @@
         <v>44574</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>815</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA38" s="12">
         <v>44729</v>
@@ -7559,13 +7559,13 @@
         <v>32</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="N39" s="2">
         <v>20000001</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="P39" s="2">
         <v>1615</v>
@@ -7592,7 +7592,7 @@
         <v>446</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y39" s="2" t="s">
         <v>32</v>
@@ -7601,16 +7601,16 @@
         <v>44574</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AB39" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC39" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AD39" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="AD39" s="2" t="s">
-        <v>1174</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>32</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA39" s="12">
         <v>44729</v>
@@ -7741,13 +7741,13 @@
         <v>32</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N40" s="2">
         <v>20000005</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="P40" s="2">
         <v>1665</v>
@@ -7774,7 +7774,7 @@
         <v>446</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y40" s="2" t="s">
         <v>32</v>
@@ -7783,13 +7783,13 @@
         <v>44574</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AB40" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>815</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA40" s="12">
         <v>44729</v>
@@ -7923,13 +7923,13 @@
         <v>32</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="N41" s="2">
         <v>20000007</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="P41" s="2">
         <v>1615</v>
@@ -7953,7 +7953,7 @@
         <v>446</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y41" s="2" t="s">
         <v>32</v>
@@ -7962,16 +7962,16 @@
         <v>44574</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AB41" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>32</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA41" s="12">
         <v>44729</v>
@@ -8102,13 +8102,13 @@
         <v>32</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="N42" s="2">
         <v>20000010</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="P42" s="2">
         <v>1665</v>
@@ -8135,7 +8135,7 @@
         <v>446</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y42" s="2" t="s">
         <v>32</v>
@@ -8144,13 +8144,13 @@
         <v>44574</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AD42" s="2" t="s">
         <v>815</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA42" s="12">
         <v>44729</v>
@@ -8284,13 +8284,13 @@
         <v>32</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="N43" s="2">
         <v>20000002</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="P43" s="2">
         <v>1665</v>
@@ -8317,7 +8317,7 @@
         <v>446</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y43" s="2" t="s">
         <v>32</v>
@@ -8326,13 +8326,13 @@
         <v>44574</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AB43" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD43" s="2" t="s">
         <v>815</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA43" s="12">
         <v>44729</v>
@@ -8466,13 +8466,13 @@
         <v>32</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="N44" s="2">
         <v>20000020</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="P44" s="2">
         <v>1665</v>
@@ -8496,7 +8496,7 @@
         <v>446</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y44" s="2" t="s">
         <v>32</v>
@@ -8505,13 +8505,13 @@
         <v>44574</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AB44" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AD44" s="2" t="s">
         <v>815</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA44" s="12">
         <v>44729</v>
@@ -8645,13 +8645,13 @@
         <v>32</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="N45" s="2">
         <v>20000014</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P45" s="2">
         <v>1665</v>
@@ -8675,7 +8675,7 @@
         <v>446</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y45" s="2" t="s">
         <v>32</v>
@@ -8684,13 +8684,13 @@
         <v>44574</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AB45" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>815</v>
@@ -8741,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA45" s="12">
         <v>44729</v>
@@ -8824,13 +8824,13 @@
         <v>32</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="N46" s="2">
         <v>20000012</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="P46" s="2">
         <v>1665</v>
@@ -8857,7 +8857,7 @@
         <v>446</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y46" s="2" t="s">
         <v>32</v>
@@ -8866,13 +8866,13 @@
         <v>44574</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AB46" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>815</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA46" s="12">
         <v>44729</v>
@@ -9006,13 +9006,13 @@
         <v>32</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="N47" s="2">
         <v>20000021</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="P47" s="2">
         <v>1665</v>
@@ -9036,7 +9036,7 @@
         <v>446</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y47" s="2" t="s">
         <v>32</v>
@@ -9045,13 +9045,13 @@
         <v>44574</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AB47" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AD47" s="2" t="s">
         <v>815</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="AZ47" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA47" s="12">
         <v>44729</v>
@@ -9185,13 +9185,13 @@
         <v>32</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="N48" s="2">
         <v>20000017</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="P48" s="2">
         <v>1665</v>
@@ -9215,7 +9215,7 @@
         <v>446</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y48" s="2" t="s">
         <v>32</v>
@@ -9224,13 +9224,13 @@
         <v>44574</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AB48" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AD48" s="2" t="s">
         <v>815</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA48" s="12">
         <v>44729</v>
@@ -9364,13 +9364,13 @@
         <v>32</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="N49" s="2">
         <v>20000013</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="P49" s="2">
         <v>1665</v>
@@ -9394,7 +9394,7 @@
         <v>446</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y49" s="2" t="s">
         <v>32</v>
@@ -9403,13 +9403,13 @@
         <v>44574</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AB49" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AD49" s="2" t="s">
         <v>815</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA49" s="12">
         <v>44729</v>
@@ -9543,13 +9543,13 @@
         <v>32</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="N50" s="2">
         <v>20000005</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="P50" s="2">
         <v>1665</v>
@@ -9573,7 +9573,7 @@
         <v>446</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y50" s="2" t="s">
         <v>32</v>
@@ -9582,13 +9582,13 @@
         <v>44574</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AB50" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AD50" s="2" t="s">
         <v>815</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA50" s="12">
         <v>44729</v>
@@ -9722,13 +9722,13 @@
         <v>32</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="N51" s="2">
         <v>20000022</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P51" s="2">
         <v>1665</v>
@@ -9755,7 +9755,7 @@
         <v>446</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y51" s="2" t="s">
         <v>32</v>
@@ -9764,13 +9764,13 @@
         <v>44574</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AB51" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AD51" s="2" t="s">
         <v>815</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA51" s="12">
         <v>44729</v>
@@ -9904,13 +9904,13 @@
         <v>32</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="N52" s="2">
         <v>20000018</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="P52" s="2">
         <v>1665</v>
@@ -9937,7 +9937,7 @@
         <v>446</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y52" s="2" t="s">
         <v>32</v>
@@ -9946,13 +9946,13 @@
         <v>44574</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AB52" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AD52" s="2" t="s">
         <v>815</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="AZ52" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA52" s="12">
         <v>44729</v>
@@ -10086,13 +10086,13 @@
         <v>32</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="N53" s="2">
         <v>20000015</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P53" s="2">
         <v>1665</v>
@@ -10119,7 +10119,7 @@
         <v>446</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y53" s="2" t="s">
         <v>32</v>
@@ -10128,13 +10128,13 @@
         <v>44574</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AB53" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AD53" s="2" t="s">
         <v>815</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA53" s="12">
         <v>44729</v>
@@ -10268,13 +10268,13 @@
         <v>32</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="N54" s="2">
         <v>20000009</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="P54" s="2">
         <v>1665</v>
@@ -10298,7 +10298,7 @@
         <v>446</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>32</v>
@@ -10307,13 +10307,13 @@
         <v>44574</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AB54" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AD54" s="2" t="s">
         <v>815</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA54" s="12">
         <v>44729</v>
@@ -10447,13 +10447,13 @@
         <v>32</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="N55" s="2">
         <v>20000019</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="P55" s="2">
         <v>1665</v>
@@ -10480,7 +10480,7 @@
         <v>446</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y55" s="2" t="s">
         <v>32</v>
@@ -10489,13 +10489,13 @@
         <v>44574</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AB55" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AD55" s="2" t="s">
         <v>815</v>
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="AZ55" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA55" s="12">
         <v>44729</v>
@@ -10629,13 +10629,13 @@
         <v>32</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="N56" s="2">
         <v>20000016</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="P56" s="2">
         <v>1665</v>
@@ -10659,7 +10659,7 @@
         <v>446</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y56" s="2" t="s">
         <v>32</v>
@@ -10668,13 +10668,13 @@
         <v>44574</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AD56" s="2" t="s">
         <v>815</v>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA56" s="12">
         <v>44729</v>
@@ -10808,13 +10808,13 @@
         <v>32</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="N57" s="2">
         <v>20000024</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="P57" s="2">
         <v>1665</v>
@@ -10838,7 +10838,7 @@
         <v>446</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y57" s="2" t="s">
         <v>32</v>
@@ -10847,13 +10847,13 @@
         <v>44574</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AD57" s="2" t="s">
         <v>815</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA57" s="12">
         <v>44729</v>
@@ -10987,13 +10987,13 @@
         <v>32</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N58" s="2">
         <v>20000026</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P58" s="2">
         <v>1665</v>
@@ -11020,7 +11020,7 @@
         <v>446</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>32</v>
@@ -11029,13 +11029,13 @@
         <v>44574</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AB58" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AD58" s="2" t="s">
         <v>815</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA58" s="12">
         <v>44729</v>
@@ -11169,13 +11169,13 @@
         <v>32</v>
       </c>
       <c r="M59" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>1253</v>
       </c>
       <c r="P59" s="2">
         <v>1744</v>
@@ -11202,7 +11202,7 @@
         <v>446</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y59" s="12">
         <v>44578</v>
@@ -11211,16 +11211,16 @@
         <v>44578</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AB59" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC59" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AD59" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="AD59" s="2" t="s">
-        <v>1257</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>32</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="AU59" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AV59" s="12">
         <v>44578</v>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA59" s="12">
         <v>44729</v>
@@ -11351,13 +11351,13 @@
         <v>32</v>
       </c>
       <c r="M60" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>1259</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>1260</v>
       </c>
       <c r="P60" s="2">
         <v>1744</v>
@@ -11384,7 +11384,7 @@
         <v>446</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y60" s="12">
         <v>44578</v>
@@ -11393,16 +11393,16 @@
         <v>44578</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AB60" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC60" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AD60" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="AD60" s="2" t="s">
-        <v>1257</v>
       </c>
       <c r="AE60" s="2" t="s">
         <v>32</v>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AV60" s="12">
         <v>44578</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="AZ60" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA60" s="12">
         <v>44729</v>
@@ -11533,13 +11533,13 @@
         <v>32</v>
       </c>
       <c r="M61" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>1262</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>1263</v>
       </c>
       <c r="P61" s="2">
         <v>1665</v>
@@ -11566,7 +11566,7 @@
         <v>446</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y61" s="12">
         <v>44578</v>
@@ -11575,16 +11575,16 @@
         <v>44578</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AB61" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AE61" s="2" t="s">
         <v>32</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AV61" s="12">
         <v>44578</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA61" s="12">
         <v>44729</v>
@@ -11715,13 +11715,13 @@
         <v>32</v>
       </c>
       <c r="M62" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>1267</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>1268</v>
       </c>
       <c r="P62" s="2">
         <v>1744</v>
@@ -11748,7 +11748,7 @@
         <v>446</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y62" s="12">
         <v>44578</v>
@@ -11757,16 +11757,16 @@
         <v>44578</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AB62" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AE62" s="2" t="s">
         <v>32</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AV62" s="12">
         <v>44578</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA62" s="12">
         <v>44729</v>
@@ -11897,13 +11897,13 @@
         <v>32</v>
       </c>
       <c r="M63" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>1273</v>
       </c>
       <c r="P63" s="2">
         <v>1665</v>
@@ -11930,7 +11930,7 @@
         <v>446</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y63" s="12">
         <v>44578</v>
@@ -11939,16 +11939,16 @@
         <v>44578</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AB63" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AE63" s="2" t="s">
         <v>32</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AV63" s="12">
         <v>44578</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA63" s="12">
         <v>44729</v>
@@ -12079,13 +12079,13 @@
         <v>32</v>
       </c>
       <c r="M64" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>1275</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>1276</v>
       </c>
       <c r="P64" s="2">
         <v>1743</v>
@@ -12112,7 +12112,7 @@
         <v>446</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y64" s="12">
         <v>44578</v>
@@ -12121,16 +12121,16 @@
         <v>44578</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="AB64" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC64" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AD64" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="AD64" s="2" t="s">
-        <v>1257</v>
       </c>
       <c r="AE64" s="2" t="s">
         <v>32</v>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AV64" s="12">
         <v>44578</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA64" s="12">
         <v>44729</v>
@@ -12261,13 +12261,13 @@
         <v>32</v>
       </c>
       <c r="M65" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O65" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>1279</v>
       </c>
       <c r="P65" s="2">
         <v>1665</v>
@@ -12294,7 +12294,7 @@
         <v>446</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y65" s="12">
         <v>44578</v>
@@ -12303,16 +12303,16 @@
         <v>44578</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AB65" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AE65" s="2" t="s">
         <v>32</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AV65" s="12">
         <v>44578</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA65" s="12">
         <v>44729</v>
@@ -12443,13 +12443,13 @@
         <v>32</v>
       </c>
       <c r="M66" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>1281</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>1282</v>
       </c>
       <c r="P66" s="2">
         <v>1665</v>
@@ -12476,7 +12476,7 @@
         <v>446</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y66" s="12">
         <v>44578</v>
@@ -12485,16 +12485,16 @@
         <v>44578</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AB66" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AD66" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AE66" s="2" t="s">
         <v>32</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="AU66" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AV66" s="12">
         <v>44578</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="AZ66" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA66" s="12">
         <v>44729</v>
@@ -12625,13 +12625,13 @@
         <v>32</v>
       </c>
       <c r="M67" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>1284</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>1285</v>
       </c>
       <c r="P67" s="2">
         <v>1665</v>
@@ -12658,7 +12658,7 @@
         <v>446</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y67" s="12">
         <v>44578</v>
@@ -12667,16 +12667,16 @@
         <v>44578</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AB67" s="2" t="s">
         <v>835</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AE67" s="2" t="s">
         <v>32</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AV67" s="12">
         <v>44578</v>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BA67" s="12">
         <v>44729</v>
@@ -12745,13 +12745,13 @@
         <v>0</v>
       </c>
       <c r="BH67" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="BI67" s="2">
         <v>2</v>
       </c>
       <c r="BK67" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="BL67" s="2">
         <v>0</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="69" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="70" spans="1:76" x14ac:dyDescent="0.2">
@@ -12791,16 +12791,16 @@
         <v>602</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>1345</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>731</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>735</v>
@@ -12812,13 +12812,13 @@
         <v>747</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>1348</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="71" spans="1:76" x14ac:dyDescent="0.2">
@@ -12844,10 +12844,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H71" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>1350</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="72" spans="1:76" x14ac:dyDescent="0.2">
@@ -12873,10 +12873,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="73" spans="1:76" x14ac:dyDescent="0.2">
@@ -12902,10 +12902,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="74" spans="1:76" x14ac:dyDescent="0.2">
@@ -12931,10 +12931,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="75" spans="1:76" x14ac:dyDescent="0.2">
@@ -12960,10 +12960,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="76" spans="1:76" x14ac:dyDescent="0.2">
@@ -12989,10 +12989,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="77" spans="1:76" x14ac:dyDescent="0.2">
@@ -13018,10 +13018,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="78" spans="1:76" x14ac:dyDescent="0.2">
@@ -13047,10 +13047,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="79" spans="1:76" x14ac:dyDescent="0.2">
@@ -13076,10 +13076,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="80" spans="1:76" x14ac:dyDescent="0.2">
@@ -13105,10 +13105,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -13134,10 +13134,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -13163,10 +13163,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -13192,10 +13192,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -13221,10 +13221,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -13250,10 +13250,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -13279,10 +13279,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -13308,10 +13308,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -13337,10 +13337,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -13366,10 +13366,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -13395,10 +13395,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -13424,10 +13424,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -13453,10 +13453,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -13482,10 +13482,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -13511,10 +13511,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -13540,10 +13540,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -13569,10 +13569,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -13598,10 +13598,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -13627,10 +13627,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -13656,10 +13656,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -13685,10 +13685,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -13714,10 +13714,10 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -13733,7 +13733,7 @@
   <dimension ref="A1:Q164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A18" sqref="A18:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -14496,13 +14496,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1110</v>
+        <v>1400</v>
       </c>
       <c r="B20" s="39">
         <v>3</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G20" s="4">
         <v>147</v>
@@ -14543,7 +14543,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G21" s="4">
         <v>148</v>
@@ -14584,7 +14584,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G22" s="4">
         <v>149</v>
@@ -14628,7 +14628,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G23" s="4">
         <v>150</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B24" s="1"/>
       <c r="G24" s="4">
@@ -14706,7 +14706,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D25" s="2">
         <v>123456</v>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D26" s="2">
         <v>752</v>
@@ -14792,11 +14792,11 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D27" s="2">
         <v>23595</v>
@@ -14869,7 +14869,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B29" s="1"/>
       <c r="G29" s="4">
@@ -14906,7 +14906,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B30" s="1"/>
       <c r="G30" s="4">
@@ -14981,7 +14981,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B32" s="1"/>
       <c r="G32" s="4">
@@ -15020,7 +15020,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G33" s="4">
         <v>204</v>
@@ -15056,7 +15056,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G34" s="4">
         <v>211</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G36" s="4">
         <v>214</v>
@@ -15161,7 +15161,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G37" s="4">
         <v>216</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G38" s="4">
         <v>217</v>
@@ -15237,7 +15237,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G39" s="4">
         <v>220</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G41" s="4">
         <v>223</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G42" s="4">
         <v>225</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G43" s="4">
         <v>229</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G44" s="4">
         <v>231</v>
@@ -15460,7 +15460,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G45" s="4">
         <v>232</v>
@@ -15498,7 +15498,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G46" s="4">
         <v>233</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G47" s="4">
         <v>234</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G48" s="4">
         <v>235</v>
@@ -33147,13 +33147,13 @@
     <row r="1" spans="2:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="32"/>
       <c r="C1" s="33" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>1113</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>1114</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -33173,13 +33173,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="E5" s="22" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -33198,79 +33198,79 @@
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="22" t="s">
         <v>1118</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="E10" s="22" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="E11" s="22" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="21"/>
       <c r="E12" s="22" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="E13" s="22" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="E14" s="22" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="E15" s="22" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="E16" s="22" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="E17" s="22" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -33279,13 +33279,13 @@
       <c r="D18" s="24"/>
       <c r="E18" s="28"/>
       <c r="H18" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E19" s="5"/>
       <c r="H19" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -33298,55 +33298,55 @@
     <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E21" s="30"/>
       <c r="H21" s="37" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="21"/>
       <c r="D22" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E22" s="30"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="D23" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E23" s="30"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
       <c r="D24" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E24" s="30"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="21"/>
       <c r="D25" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
       <c r="D26" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E26" s="30"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="21"/>
       <c r="D27" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E27" s="30"/>
     </row>
@@ -33366,45 +33366,45 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="21"/>
       <c r="C31" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="21"/>
       <c r="D32" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E32" s="30"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="21"/>
       <c r="D33" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E33" s="30"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="21"/>
       <c r="D34" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E34" s="30"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="21"/>
       <c r="D35" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E35" s="30"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="21"/>
       <c r="D36" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E36" s="30"/>
     </row>
@@ -33435,22 +33435,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Fleet Paqueteria.xlsx
+++ b/Excels/Fleet Paqueteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA96D325-C8CF-48D8-9B24-FCC2E1FD311F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6B0D5C-1E5D-4D6F-B07E-D240DC1BA85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACF8A49-EE6E-47DE-9CD9-2B198662CB92}"/>
   </bookViews>
@@ -4188,9 +4188,6 @@
     <t>ORDER BY IdRuta, Secuencia</t>
   </si>
   <si>
-    <t>SELECT ID, IdFletero, FechaAlta, Nombre, Estado</t>
-  </si>
-  <si>
     <t>FROM     p_Rutas</t>
   </si>
   <si>
@@ -4261,6 +4258,9 @@
   </si>
   <si>
     <t>where NroRuta=10090</t>
+  </si>
+  <si>
+    <t>SELECT ID, IdFletero, FechaAlta, Nombre, Estado,HabilitaCatastro</t>
   </si>
 </sst>
 </file>
@@ -4530,7 +4530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4600,6 +4600,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -13750,8 +13753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC529FB-4C30-45A4-B2B2-CD6673B65124}">
   <dimension ref="A1:Q164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -14514,7 +14517,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B20" s="39">
         <v>3</v>
@@ -14640,7 +14643,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B23" s="43">
         <v>7</v>
@@ -14684,7 +14687,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B24" s="1"/>
       <c r="G24" s="4">
@@ -14724,7 +14727,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D25" s="2">
         <v>123456</v>
@@ -14769,7 +14772,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D26" s="2">
         <v>752</v>
@@ -14810,11 +14813,11 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D27" s="2">
         <v>23595</v>
@@ -14999,7 +15002,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1382</v>
+        <v>1406</v>
       </c>
       <c r="B32" s="1"/>
       <c r="G32" s="4">
@@ -15038,7 +15041,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G33" s="4">
         <v>204</v>
@@ -15074,7 +15077,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G34" s="4">
         <v>211</v>
@@ -15143,7 +15146,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G36" s="4">
         <v>214</v>
@@ -15217,7 +15220,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G38" s="4">
         <v>217</v>
@@ -15328,7 +15331,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G41" s="4">
         <v>223</v>
@@ -15364,7 +15367,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G42" s="4">
         <v>225</v>
@@ -15402,7 +15405,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G43" s="4">
         <v>229</v>
@@ -15440,7 +15443,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G44" s="4">
         <v>231</v>
@@ -15478,7 +15481,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G45" s="4">
         <v>232</v>
@@ -15552,7 +15555,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G47" s="4">
         <v>234</v>
@@ -15590,7 +15593,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G48" s="4">
         <v>235</v>
@@ -15663,7 +15666,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G50" s="4">
         <v>242</v>
@@ -15701,7 +15704,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G51" s="4">
         <v>243</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G52" s="4">
         <v>244</v>
@@ -15777,7 +15780,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G53" s="4">
         <v>246</v>
@@ -15850,7 +15853,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G55" s="4">
         <v>251</v>
@@ -15888,7 +15891,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G56" s="4">
         <v>252</v>
@@ -15926,7 +15929,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G57" s="4">
         <v>253</v>
@@ -16067,7 +16070,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A61" s="49">
+        <v>8751</v>
+      </c>
       <c r="G61" s="4">
         <v>277</v>
       </c>
@@ -16102,7 +16108,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A62" s="49">
+        <v>8856</v>
+      </c>
       <c r="G62" s="4">
         <v>278</v>
       </c>
@@ -16137,7 +16146,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A63" s="49">
+        <v>10090</v>
+      </c>
       <c r="G63" s="4">
         <v>279</v>
       </c>
@@ -16172,7 +16184,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A64" s="49">
+        <v>39356</v>
+      </c>
       <c r="G64" s="4">
         <v>280</v>
       </c>
